--- a/schnitzcell_fullAnalysis_2colors.xlsx
+++ b/schnitzcell_fullAnalysis_2colors.xlsx
@@ -309,12 +309,6 @@
     <t>pos2</t>
   </si>
   <si>
-    <t>2009-12-16</t>
-  </si>
-  <si>
-    <t>[150 500]</t>
-  </si>
-  <si>
     <t>[0 500]</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
     <t>[1:100]</t>
   </si>
   <si>
-    <t>X:\colonies</t>
-  </si>
-  <si>
     <t>% second color</t>
   </si>
   <si>
@@ -355,6 +346,15 @@
   </si>
   <si>
     <t>DJK_plot_scatterColor(p, s_rm_fitTime_cycle, 'av_mu_fitNew', 'av_R6_mean', 'av_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime_cycle, 'plotRegression', 1, 'onScreen', 0);</t>
+  </si>
+  <si>
+    <t>D:\ExperimentalData</t>
+  </si>
+  <si>
+    <t>2011-10-20</t>
+  </si>
+  <si>
+    <t>[20 250]</t>
   </si>
 </sst>
 </file>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E140"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -922,7 +922,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -930,7 +930,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -938,7 +938,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -946,7 +946,7 @@
         <v>51</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -960,7 +960,7 @@
         <v>53</v>
       </c>
       <c r="B24" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -997,7 +997,7 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);")</f>
-        <v>p = DJK_initschnitz('pos2','2009-12-16','e.coli.AMOLF','rootDir','X:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1012,7 +1012,7 @@
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"crop','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', ", B$7,", 'cropRightBottom', ", B$8,");")</f>
-        <v>p = DJK_initschnitz('pos2crop','2009-12-16','e.coli.AMOLF','rootDir','X:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2crop','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1111,12 +1111,12 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1133,7 +1133,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1144,12 +1144,12 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1174,7 +1174,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1194,7 +1194,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1208,13 +1208,13 @@
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="str">
         <f>CONCATENATE("DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [", $B$24, "]);")</f>
-        <v>DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [25]);</v>
+        <v>DJK_addToSchnitzes_mu(p, 'onScreen', 0, 'frameSizes', [15]);</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="str">
         <f>CONCATENATE("DJK_addToSchnitzes_mu(p, 'frameSizes', [", $B$24, "]);")</f>
-        <v>DJK_addToSchnitzes_mu(p, 'frameSizes', [25]);</v>
+        <v>DJK_addToSchnitzes_mu(p, 'frameSizes', [15]);</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1226,7 +1226,7 @@
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="str">
         <f>CONCATENATE("p = DJK_initschnitz('",B$3,"crop','",B$2,"','e.coli.AMOLF','rootDir','",B$4,"\', 'cropLeftTop', ", B$7,", 'cropRightBottom', ", B$8,");")</f>
-        <v>p = DJK_initschnitz('pos2crop','2009-12-16','e.coli.AMOLF','rootDir','X:\colonies\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
+        <v>p = DJK_initschnitz('pos2crop','2011-10-20','e.coli.AMOLF','rootDir','D:\ExperimentalData\', 'cropLeftTop', [1,1], 'cropRightBottom', [1392,1040]);</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1237,7 +1237,7 @@
     <row r="80" spans="1:2">
       <c r="A80" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$22, ";")</f>
-        <v>fitTime = [150 500];</v>
+        <v>fitTime = [20 250];</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>61</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B95" s="4"/>
     </row>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4"/>
     </row>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4"/>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4"/>
     </row>
@@ -1388,35 +1388,35 @@
     <row r="105" spans="1:2">
       <c r="A105" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'Y_time', 'dataFields', {'muP", $B$20,"_fitNew', 'Y6_mean'}, 'fitTime', fitTime);")</f>
-        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'Y_time', 'dataFields', {'muP[150 500]_fitNew', 'Y6_mean'}, 'fitTime', fitTime);</v>
+        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'Y_time', 'dataFields', {'muP[20 250]_fitNew', 'Y6_mean'}, 'fitTime', fitTime);</v>
       </c>
       <c r="B105" s="4"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP", $B$20,"_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'muP[150 500]_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'muP[20 250]_fitNew', 'Y6_mean', 'Y_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B106" s="4"/>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_muP", $B$20,"_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP[150 500]_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP[20 250]_fitNew', 'noise_Y6_mean', 'Y_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B107" s="4"/>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'Y6_mean', ",B$22,", 'selectionName', name_rm_fitTime, 'onScreen', 0);")</f>
-        <v>DJK_plot_time_hist(p, schnitzData, 'Y6_mean', [150 500], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
+        <v>DJK_plot_time_hist(p, schnitzData, 'Y6_mean', [20 250], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
       </c>
       <c r="B108" s="4"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="str">
         <f>CONCATENATE("DJK_plot_time_hist(p, schnitzData, 'muP", $B$20,"_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);")</f>
-        <v>DJK_plot_time_hist(p, schnitzData, 'muP[150 500]_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
+        <v>DJK_plot_time_hist(p, schnitzData, 'muP[20 250]_fitNew', 0, 'binCenters', [0:0.05:1.4], 'selectionName', name_rm_fitTime, 'onScreen', 0);</v>
       </c>
       <c r="B109" s="4"/>
     </row>
@@ -1427,21 +1427,21 @@
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="str">
         <f>CONCATENATE("schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP", $B$20,"_fitNew', 'R6_mean'}, 'fitTime', fitTime);")</f>
-        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP[150 500]_fitNew', 'R6_mean'}, 'fitTime', fitTime);</v>
+        <v>schnitzData = DJK_get_schnitzData(p, s_rm_fitTime,'R_time', 'dataFields', {'muP[20 250]_fitNew', 'R6_mean'}, 'fitTime', fitTime);</v>
       </c>
       <c r="B111" s="4"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'muP", $B$20,"_fitNew', 'R6_mean', 'R_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'muP[150 500]_fitNew', 'R6_mean', 'R_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'muP[20 250]_fitNew', 'R6_mean', 'R_time', 'xlim', [0 100], 'ylim', [0 1.4], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B112" s="4"/>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="4" t="str">
         <f>CONCATENATE("DJK_plot_scatterColor(p, schnitzData, 'noise_muP", $B$20,"_fitNew', 'noise_R6_mean', 'R_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);")</f>
-        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP[150 500]_fitNew', 'noise_R6_mean', 'R_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
+        <v>DJK_plot_scatterColor(p, schnitzData, 'noise_muP[20 250]_fitNew', 'noise_R6_mean', 'R_time', 'xlim', [-50 50], 'ylim', [-0.7 0.7], 'selectionName', name_rm_fitTime, 'plotRegression', 1, 'onScreen', 0);</v>
       </c>
       <c r="B113" s="4"/>
     </row>
@@ -1457,14 +1457,14 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B116" s="4"/>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$20, "; fitTime = fitTime + [2 -2];")</f>
-        <v>fitTime = [150 500]; fitTime = fitTime + [2 -2];</v>
+        <v>fitTime = [20 250]; fitTime = fitTime + [2 -2];</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>80</v>
@@ -1472,15 +1472,15 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="4" t="str">
-        <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
-        <v>branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP25_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
+        <f>CONCATENATE("branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'R_time' 'R6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
+        <v>branchData = DJK_getBranches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'R_time' 'R6_mean' 'muP15_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
       </c>
       <c r="B118" s="4"/>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="str">
-        <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'muP", $B$24,"_fitNew'});")</f>
-        <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'muP25_fitNew'});</v>
+        <f>CONCATENATE("branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'R_time' 'R6_mean' 'muP", $B$24,"_fitNew'});")</f>
+        <v>branches = DJK_addToBranches_noise(p, branchData,'dataFields',{'Y_time' 'Y6_mean' 'R_time' 'R6_mean' 'muP15_fitNew'});</v>
       </c>
       <c r="B119" s="4"/>
     </row>
@@ -1498,38 +1498,38 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP25_fitNew');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP15_fitNew','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean', 'noise_muP25_fitNew');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean', 'noise_muP15_fitNew','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_R6_mean');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_R6_mean');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_R6_mean','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_R6_mean','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_Y6_mean');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_Y6_mean',  'noise_Y6_mean');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_Y6_mean','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_Y6_mean',  'noise_Y6_mean','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups,'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups,'noise_muP25_fitNew', 'noise_muP25_fitNew');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups,'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups,'noise_muP15_fitNew', 'noise_muP15_fitNew','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="str">
-        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_R6_mean',  'noise_R6_mean');")</f>
-        <v>DJK_plot_crosscorrelation_standard_error(branch_groups, 'noise_R6_mean',  'noise_R6_mean');</v>
+        <f>+CONCATENATE("DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean',  'noise_R6_mean','selectionName',name_rm_branch);")</f>
+        <v>DJK_plot_crosscorrelation_standard_error_store(p, branch_groups, 'noise_R6_mean',  'noise_R6_mean','selectionName',name_rm_branch);</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1538,55 +1538,58 @@
     <row r="129" spans="1:1">
       <c r="A129" s="4"/>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="16" t="s">
-        <v>101</v>
-      </c>
+    <row r="130" spans="1:1">
+      <c r="A130" s="4"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="3" t="str">
+      <c r="A133" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="3" t="str">
         <f>CONCATENATE("fitTime = ", B$20, "; fitTime = fitTime + [2 -2];")</f>
-        <v>fitTime = [150 500]; fitTime = fitTime + [2 -2];</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="4" t="str">
-        <f>CONCATENATE("branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
-        <v>branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP25_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
+        <v>fitTime = [20 250]; fitTime = fitTime + [2 -2];</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="4" t="str">
+        <f>CONCATENATE("branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP", $B$24,"_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];")</f>
+        <v>branchData = DJK_get_branches(p,s_rm,'dataFields',{'Y_time','Y6_mean' 'muP15_fitNew'}, 'fitTime', fitTime); name_rm_branch = [name_rm '_' num2str(fitTime(1)) '_' num2str(fitTime(2))];</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="4" t="str">
         <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_R6_mean', 'correct', 1, 'xlim', ", $B$19,", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
         <v>DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_R6_mean', 'correct', 1, 'xlim', [0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="4" t="str">
+    <row r="137" spans="1:1">
+      <c r="A137" s="4" t="str">
         <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_Y6_mean', 'correct', 1, 'xlim', ", $B$19,", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
         <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_Y6_mean', 'correct', 1, 'xlim', [0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="4" t="str">
-        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim',", $B$19, ", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
-        <v>DJK_xcorr_branches(p, branchData, 'noise_muP25_fitNew', 'noise_muP25_fitNew', 'correct', 1, 'xlim',[0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
-      </c>
-    </row>
     <row r="138" spans="1:1">
       <c r="A138" s="4" t="str">
-        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
-        <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP25_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
+        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_muP", $B$24,"_fitNew', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim',", $B$19, ", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
+        <v>DJK_xcorr_branches(p, branchData, 'noise_muP15_fitNew', 'noise_muP15_fitNew', 'correct', 1, 'xlim',[0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="4" t="str">
-        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
-        <v>DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_muP25_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
+        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
+        <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_muP15_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="4" t="str">
+        <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_muP", $B$24,"_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
+        <v>DJK_xcorr_branches(p, branchData, 'noise_R6_mean', 'noise_muP15_fitNew', 'correct', 1, 'xlim', [-450 450], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="4" t="str">
         <f>CONCATENATE("DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_R6_mean', 'correct', 1, 'xlim', ", $B$19,", 'selectionName', name_rm_branch, 'onScreen', 0);")</f>
         <v>DJK_xcorr_branches(p, branchData, 'noise_Y6_mean', 'noise_R6_mean', 'correct', 1, 'xlim', [0 500], 'selectionName', name_rm_branch, 'onScreen', 0);</v>
       </c>
